--- a/result/new/bestfitV2NewApp1Latency90.xlsx
+++ b/result/new/bestfitV2NewApp1Latency90.xlsx
@@ -249,7 +249,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.472232699</v>
+        <v>0.4625521</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -285,7 +285,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.336349902</v>
+        <v>0.3610429</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -321,7 +321,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.3323158</v>
+        <v>0.3603993</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -357,7 +357,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.3430502</v>
+        <v>0.3457857</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -393,7 +393,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.311706299</v>
+        <v>0.4288221</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -429,7 +429,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.2788848</v>
+        <v>0.5786785</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -465,7 +465,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.302127398</v>
+        <v>0.4861972</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -501,7 +501,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.3487303</v>
+        <v>0.3994146</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -537,7 +537,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.332897099</v>
+        <v>0.3702042</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.3104485</v>
+        <v>0.4736792</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -609,7 +609,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.297952601</v>
+        <v>0.4310375</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2654511</v>
+        <v>0.4435339</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -681,7 +681,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.299073198</v>
+        <v>0.4264663</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.281353099</v>
+        <v>0.398975</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -753,7 +753,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.280551799</v>
+        <v>0.4212234</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.2681967</v>
+        <v>0.4170507</v>
       </c>
       <c r="B17" t="s">
         <v>12</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.274264599</v>
+        <v>0.3792593</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
@@ -861,7 +861,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.297254497</v>
+        <v>0.4266287</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
@@ -897,7 +897,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.3474012</v>
+        <v>0.5600037</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.3326482</v>
+        <v>0.7159127</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
